--- a/results/xlsx_reports/Rastrigin_PSO.xlsx
+++ b/results/xlsx_reports/Rastrigin_PSO.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2.994603676143015e-09</v>
+      </c>
+      <c r="C2" t="n">
         <v>11.37478517442708</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.994603676143015e-09</v>
       </c>
       <c r="D2" t="n">
         <v>223.0830090171405</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.1054522818073839</v>
+      </c>
+      <c r="C3" t="n">
         <v>26.76865395845921</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1054522818073839</v>
       </c>
       <c r="D3" t="n">
         <v>296.2436732119339</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.9951195258641264</v>
+      </c>
+      <c r="C4" t="n">
         <v>50.79177357003762</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9951195258641264</v>
       </c>
       <c r="D4" t="n">
         <v>326.0062487591158</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.2617107841529469</v>
+      </c>
+      <c r="C5" t="n">
         <v>9.472704113747426</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2617107841529469</v>
       </c>
       <c r="D5" t="n">
         <v>32.82836310288593</v>
